--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,25 +46,31 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>shit</t>
@@ -73,76 +79,61 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>lower</t>
   </si>
   <si>
     <t>demand</t>
@@ -157,250 +148,241 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>gt</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>stock</t>
   </si>
   <si>
     <t>delivery</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>toilet</t>
+    <t>get</t>
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -761,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -980,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1051,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,16 +1133,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.8380281690140845</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1180,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6538461538461539</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>0.8055555555555556</v>
@@ -1380,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1401,16 +1383,16 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1501,16 +1483,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5098039215686274</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1548,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,22 +1627,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4864864864864865</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4838709677419355</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,31 +1730,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>87</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21">
+        <v>0.68</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>16</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L21">
-        <v>64</v>
-      </c>
-      <c r="M21">
-        <v>64</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4697986577181208</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.6710182767624021</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L22">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M22">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1822,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4612403100775194</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C23">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4516129032258064</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.392156862745098</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K25">
         <v>0.6060606060606061</v>
@@ -1980,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3898305084745763</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.6046511627906976</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.5970588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3818181818181818</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.5925925925925926</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3733333333333334</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3559322033898305</v>
+        <v>0.3</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2222,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2212,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3544973544973545</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C31">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3513513513513514</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2298,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.55</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3414634146341464</v>
+        <v>0.2375</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2348,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.5423728813559322</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L33">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2362,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2987012987012987</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2448,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.5357142857142857</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2472,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2480,28 +2462,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.275</v>
+        <v>0.008322237017310254</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>58</v>
+        <v>2979</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K36">
         <v>0.5230125523012552</v>
@@ -2530,181 +2512,109 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2619047619047619</v>
+        <v>0.007994883274704189</v>
       </c>
       <c r="C37">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>186</v>
+        <v>3102</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <v>0.45</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>0.421875</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K37">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="L37">
-        <v>16</v>
-      </c>
-      <c r="M37">
-        <v>16</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.1474530831099196</v>
-      </c>
-      <c r="C38">
-        <v>55</v>
-      </c>
-      <c r="D38">
-        <v>55</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>318</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="L38">
-        <v>40</v>
-      </c>
-      <c r="M38">
-        <v>40</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0117096018735363</v>
-      </c>
-      <c r="C39">
-        <v>35</v>
-      </c>
-      <c r="D39">
-        <v>153</v>
-      </c>
-      <c r="E39">
-        <v>0.77</v>
-      </c>
-      <c r="F39">
-        <v>0.23</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2954</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>0.5056179775280899</v>
-      </c>
-      <c r="L39">
-        <v>45</v>
-      </c>
-      <c r="M39">
-        <v>45</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.008931419457735247</v>
-      </c>
-      <c r="C40">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>94</v>
-      </c>
-      <c r="E40">
-        <v>0.7</v>
-      </c>
-      <c r="F40">
-        <v>0.3</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>3107</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="K40">
-        <v>0.4642857142857143</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L40">
         <v>13</v>
@@ -2722,47 +2632,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.4634146341463415</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.4520547945205479</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2774,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.4285714285714285</v>
+        <v>0.35</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2800,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.4222222222222222</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2826,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.390625</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2852,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.3617021276595745</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2878,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K47">
-        <v>0.325</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2904,41 +2814,41 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>0.288135593220339</v>
+        <v>0.1966426858513189</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>0.2456140350877193</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L49">
         <v>14</v>
@@ -2956,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>0.2295081967213115</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2982,21 +2892,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K51">
-        <v>0.2203389830508475</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3008,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K52">
-        <v>0.2186046511627907</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3034,47 +2944,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K53">
-        <v>0.2105263157894737</v>
+        <v>0.15625</v>
       </c>
       <c r="L53">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>330</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K54">
-        <v>0.2047244094488189</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3086,47 +2996,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K55">
-        <v>0.2</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K56">
-        <v>0.1984732824427481</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3138,47 +3048,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.1944444444444444</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L57">
         <v>14</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K58">
-        <v>0.1802884615384615</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L58">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3190,47 +3100,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>341</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K59">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K60">
-        <v>0.1428571428571428</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3242,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K61">
-        <v>0.134020618556701</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3268,47 +3178,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K62">
-        <v>0.1234567901234568</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K63">
-        <v>0.1209302325581395</v>
+        <v>0.1129753914988814</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3320,15 +3230,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>189</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K64">
-        <v>0.1151515151515152</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L64">
         <v>19</v>
@@ -3346,21 +3256,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K65">
-        <v>0.1120689655172414</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3372,21 +3282,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K66">
-        <v>0.1099887766554433</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L66">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="N66">
         <v>0.97</v>
@@ -3398,21 +3308,21 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>793</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K67">
-        <v>0.1094890510948905</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3424,47 +3334,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K68">
-        <v>0.1075949367088608</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>141</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>0.09799554565701558</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L69">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M69">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N69">
         <v>0.97</v>
@@ -3476,47 +3386,47 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>810</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K70">
-        <v>0.09230769230769231</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>295</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K71">
-        <v>0.08936825885978428</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L71">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M71">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N71">
         <v>0.98</v>
@@ -3528,73 +3438,73 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>591</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K72">
-        <v>0.08646616541353383</v>
+        <v>0.07621247113163972</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>243</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K73">
-        <v>0.08247422680412371</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M73">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>445</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K74">
-        <v>0.08227848101265822</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N74">
         <v>0.93</v>
@@ -3606,99 +3516,99 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>145</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K75">
-        <v>0.08139534883720931</v>
+        <v>0.06037735849056604</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>158</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K76">
-        <v>0.07175925925925926</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="L76">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>802</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K77">
-        <v>0.06992022524636321</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="L77">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1982</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K78">
-        <v>0.06818181818181818</v>
+        <v>0.04626334519572953</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M78">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3710,241 +3620,163 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K79">
-        <v>0.06578947368421052</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K80">
-        <v>0.0498220640569395</v>
+        <v>0.03842159916926272</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M80">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>267</v>
+        <v>926</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>0.04201680672268908</v>
+        <v>0.03341985723556132</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M81">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="N81">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O81">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>342</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="K82">
-        <v>0.03841145833333334</v>
+        <v>0.03339517625231911</v>
       </c>
       <c r="L82">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="N82">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O82">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2954</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>0.03735632183908046</v>
+        <v>0.02329974811083124</v>
       </c>
       <c r="L83">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M83">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N83">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="O83">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>335</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K84">
-        <v>0.03180212014134275</v>
+        <v>0.02158894645941278</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N84">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O84">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K85">
-        <v>0.02192066805845512</v>
-      </c>
-      <c r="L85">
-        <v>21</v>
-      </c>
-      <c r="M85">
-        <v>31</v>
-      </c>
-      <c r="N85">
-        <v>0.68</v>
-      </c>
-      <c r="O85">
-        <v>0.32</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86">
-        <v>0.0208005042546486</v>
-      </c>
-      <c r="L86">
-        <v>66</v>
-      </c>
-      <c r="M86">
-        <v>94</v>
-      </c>
-      <c r="N86">
-        <v>0.7</v>
-      </c>
-      <c r="O86">
-        <v>0.3</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K87">
-        <v>0.01727115716753022</v>
-      </c>
-      <c r="L87">
-        <v>20</v>
-      </c>
-      <c r="M87">
-        <v>23</v>
-      </c>
-      <c r="N87">
-        <v>0.87</v>
-      </c>
-      <c r="O87">
-        <v>0.13</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,28 +43,37 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>kill</t>
   </si>
   <si>
     <t>fear</t>
@@ -73,66 +82,84 @@
     <t>collapse</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
@@ -148,241 +175,280 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>key</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>give</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>customers</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>stock</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>employees</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>local</t>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stores</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>news</t>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>go</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
     <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -743,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -862,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -880,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -904,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -912,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8076923076923077</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -930,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -954,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -962,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -980,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1004,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1012,13 +1078,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1054,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1062,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1080,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8235294117647058</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1104,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8203125</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1154,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1162,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1212,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1230,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1254,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1262,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6538461538461539</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1330,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1354,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5897435897435898</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1380,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5641025641025641</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1430,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5483870967741935</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1504,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1512,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5405405405405406</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1530,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1554,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1628,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.475</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1604,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,13 +1678,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4563106796116505</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C19">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,22 +1693,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7375</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1654,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1662,38 +1728,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L20">
         <v>16</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20">
-        <v>0.6914893617021277</v>
-      </c>
-      <c r="L20">
-        <v>65</v>
-      </c>
-      <c r="M20">
-        <v>65</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1704,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1778,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4161073825503356</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1762,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1780,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1804,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,49 +1878,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4054054054054054</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>15</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23">
-        <v>0.625</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1862,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3728813559322034</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3559322033898305</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1954,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1962,13 +2028,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3466666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1980,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.5970588235294118</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L26">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2004,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.4457364341085271</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2030,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2054,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2062,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3137254901960784</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2080,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.5730337078651685</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2104,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2112,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3116883116883117</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2130,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2154,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2162,38 +2228,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>34</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
         <v>27</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>27</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>63</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2204,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2212,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2727272727272727</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2230,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2254,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2262,13 +2328,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.257936507936508</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2280,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.5491525423728814</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L32">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2304,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2312,13 +2378,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2375</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2362,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2321428571428572</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2380,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.5348837209302325</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2404,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2412,37 +2478,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1581769436997319</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>59</v>
       </c>
-      <c r="D35">
-        <v>59</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>314</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.5277777777777778</v>
+        <v>0.53125</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2454,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2462,37 +2528,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008322237017310254</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>0.2</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2979</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.5230125523012552</v>
+        <v>0.525</v>
       </c>
       <c r="L36">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2504,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2512,167 +2578,287 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007994883274704189</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3102</v>
+        <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K37">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L38">
+        <v>33</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39">
         <v>0.5068493150684932</v>
       </c>
-      <c r="L37">
+      <c r="L39">
         <v>37</v>
       </c>
-      <c r="M37">
+      <c r="M39">
         <v>37</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38">
-        <v>0.45</v>
-      </c>
-      <c r="L38">
-        <v>18</v>
-      </c>
-      <c r="M38">
-        <v>18</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39">
-        <v>0.421875</v>
-      </c>
-      <c r="L39">
-        <v>27</v>
-      </c>
-      <c r="M39">
-        <v>27</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>37</v>
-      </c>
-    </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2738095238095238</v>
+      </c>
+      <c r="C40">
+        <v>69</v>
+      </c>
+      <c r="D40">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>183</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.4193548387096774</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>43</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.4937238493723849</v>
+      </c>
+      <c r="L41">
+        <v>118</v>
+      </c>
+      <c r="M41">
+        <v>118</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="C42">
         <v>13</v>
       </c>
-      <c r="M40">
+      <c r="D42">
         <v>13</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K41">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="L41">
-        <v>27</v>
-      </c>
-      <c r="M41">
-        <v>27</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L42">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42">
-        <v>0.4142857142857143</v>
-      </c>
-      <c r="L42">
-        <v>29</v>
-      </c>
       <c r="M42">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2684,48 +2870,96 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.2321428571428572</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.35</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>16</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C44">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>308</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="L44">
         <v>14</v>
       </c>
-      <c r="M43">
+      <c r="M44">
         <v>14</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="L44">
-        <v>16</v>
-      </c>
-      <c r="M44">
-        <v>16</v>
-      </c>
       <c r="N44">
         <v>1</v>
       </c>
@@ -2736,73 +2970,121 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.006395153147088523</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>155</v>
+      </c>
+      <c r="E45">
+        <v>0.88</v>
+      </c>
+      <c r="F45">
+        <v>0.12</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2952</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.288135593220339</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.005466237942122186</v>
+      </c>
+      <c r="C46">
         <v>17</v>
       </c>
-      <c r="M45">
-        <v>17</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="D46">
+        <v>108</v>
+      </c>
+      <c r="E46">
+        <v>0.84</v>
+      </c>
+      <c r="F46">
+        <v>0.16</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3093</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>0.4</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46">
-        <v>0.2622950819672131</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>16</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.2125984251968504</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2814,47 +3096,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.1966426858513189</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L48">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>335</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.1944444444444444</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2866,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.1730769230769231</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L50">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2892,47 +3174,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>344</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.1679389312977099</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.1584158415841584</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2944,47 +3226,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.15625</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>81</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.1488372093023256</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2996,99 +3278,99 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.1448598130841121</v>
+        <v>0.1746411483253588</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>183</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.134020618556701</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.1296296296296296</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>94</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.1257861635220126</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3100,73 +3382,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K60">
-        <v>0.1206896551724138</v>
+        <v>0.15625</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.1165644171779141</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3178,21 +3460,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.1151515151515152</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3204,21 +3486,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K63">
-        <v>0.1129753914988814</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L63">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3230,21 +3512,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>793</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.1104651162790698</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3256,21 +3538,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.108843537414966</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3282,47 +3564,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>131</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K66">
-        <v>0.1042944785276074</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L66">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>292</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>0.0948905109489051</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3334,249 +3616,249 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.08888888888888889</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="L68">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>820</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K69">
-        <v>0.08796296296296297</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L69">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>591</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>0.08733624454148471</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N70">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>209</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K71">
-        <v>0.08247422680412371</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="L71">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>445</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K72">
-        <v>0.07621247113163972</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L72">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>800</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K73">
-        <v>0.06862745098039216</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L73">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>0.06707317073170732</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L74">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="M74">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1989</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K75">
-        <v>0.06037735849056604</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L75">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N75">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K76">
-        <v>0.05957446808510639</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N76">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>221</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K77">
-        <v>0.05726872246696035</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="L77">
         <v>13</v>
@@ -3594,189 +3876,527 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>214</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K78">
-        <v>0.04626334519572953</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M78">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>268</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K79">
-        <v>0.0457516339869281</v>
+        <v>0.09242761692650334</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="M79">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>292</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K80">
-        <v>0.03842159916926272</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L80">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M80">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="N80">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>926</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>0.03341985723556132</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L81">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>2979</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K82">
-        <v>0.03339517625231911</v>
+        <v>0.08493664946034725</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="N82">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>521</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="K83">
-        <v>0.02329974811083124</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L83">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="M83">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="N83">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3102</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K84">
-        <v>0.02158894645941278</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="L84">
+        <v>40</v>
+      </c>
+      <c r="M84">
+        <v>40</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K85">
+        <v>0.07885304659498207</v>
+      </c>
+      <c r="L85">
+        <v>22</v>
+      </c>
+      <c r="M85">
+        <v>24</v>
+      </c>
+      <c r="N85">
+        <v>0.92</v>
+      </c>
+      <c r="O85">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K86">
+        <v>0.07163323782234957</v>
+      </c>
+      <c r="L86">
         <v>25</v>
       </c>
-      <c r="M84">
-        <v>28</v>
-      </c>
-      <c r="N84">
+      <c r="M86">
+        <v>25</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K87">
+        <v>0.06167400881057269</v>
+      </c>
+      <c r="L87">
+        <v>14</v>
+      </c>
+      <c r="M87">
+        <v>14</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88">
+        <v>0.05932203389830509</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>15</v>
+      </c>
+      <c r="N88">
+        <v>0.93</v>
+      </c>
+      <c r="O88">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89">
+        <v>0.05777777777777778</v>
+      </c>
+      <c r="L89">
+        <v>13</v>
+      </c>
+      <c r="M89">
+        <v>13</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K90">
+        <v>0.05537459283387622</v>
+      </c>
+      <c r="L90">
+        <v>17</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O90">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K91">
+        <v>0.04481792717086835</v>
+      </c>
+      <c r="L91">
+        <v>16</v>
+      </c>
+      <c r="M91">
+        <v>19</v>
+      </c>
+      <c r="N91">
+        <v>0.84</v>
+      </c>
+      <c r="O91">
+        <v>0.16</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <v>0.04404145077720207</v>
+      </c>
+      <c r="L92">
+        <v>136</v>
+      </c>
+      <c r="M92">
+        <v>155</v>
+      </c>
+      <c r="N92">
+        <v>0.88</v>
+      </c>
+      <c r="O92">
+        <v>0.12</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93">
+        <v>0.04361370716510903</v>
+      </c>
+      <c r="L93">
+        <v>42</v>
+      </c>
+      <c r="M93">
+        <v>47</v>
+      </c>
+      <c r="N93">
         <v>0.89</v>
       </c>
-      <c r="O84">
+      <c r="O93">
         <v>0.11</v>
       </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1133</v>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K94">
+        <v>0.03696857670979668</v>
+      </c>
+      <c r="L94">
+        <v>20</v>
+      </c>
+      <c r="M94">
+        <v>24</v>
+      </c>
+      <c r="N94">
+        <v>0.83</v>
+      </c>
+      <c r="O94">
+        <v>0.17</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K95">
+        <v>0.0301418439716312</v>
+      </c>
+      <c r="L95">
+        <v>17</v>
+      </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
+      <c r="N95">
+        <v>0.85</v>
+      </c>
+      <c r="O95">
+        <v>0.15</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96">
+        <v>0.02858040201005025</v>
+      </c>
+      <c r="L96">
+        <v>91</v>
+      </c>
+      <c r="M96">
+        <v>108</v>
+      </c>
+      <c r="N96">
+        <v>0.84</v>
+      </c>
+      <c r="O96">
+        <v>0.16</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K97">
+        <v>0.02162629757785467</v>
+      </c>
+      <c r="L97">
+        <v>25</v>
+      </c>
+      <c r="M97">
+        <v>30</v>
+      </c>
+      <c r="N97">
+        <v>0.83</v>
+      </c>
+      <c r="O97">
+        <v>0.17</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
